--- a/data/trans_camb/P15A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-1.31177528561261</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.6721836762277368</v>
+        <v>-0.6721836762277364</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.2676703530621757</v>
@@ -664,7 +664,7 @@
         <v>-0.4496032887345975</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.3926913566937924</v>
+        <v>0.3926913566937911</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.14921383602544</v>
+        <v>-2.462059660532827</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.816400346761244</v>
+        <v>-4.143654466791076</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.204472397158638</v>
+        <v>-3.312487244965411</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.049698799373361</v>
+        <v>-3.464283142402775</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.744325183323124</v>
+        <v>-2.696281694196112</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.644339391953287</v>
+        <v>-1.608196456514824</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.116055855432062</v>
+        <v>-2.030542532669424</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.575502161593041</v>
+        <v>-2.686379840744883</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.616721027727659</v>
+        <v>-1.63456409481408</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.976111237131461</v>
+        <v>3.522030589129261</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.364748835403838</v>
+        <v>1.300980886799284</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.83241027462739</v>
+        <v>1.848637797950183</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.49459293287449</v>
+        <v>2.563090811367776</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.358494229020753</v>
+        <v>3.593336677063106</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.895707099698483</v>
+        <v>3.892838819888003</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.243796306346105</v>
+        <v>2.098914391140077</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.512725449286152</v>
+        <v>1.422718298022695</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.308707236013483</v>
+        <v>2.089997865965296</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.3853498761575997</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1974620952464059</v>
+        <v>-0.1974620952464058</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.09850773687299483</v>
@@ -769,7 +769,7 @@
         <v>-0.14652151240276</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.127974445320908</v>
+        <v>0.1279744453209076</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4920858163915695</v>
+        <v>-0.5218344733283011</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7895369569244768</v>
+        <v>-0.7897038717721981</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6656297242659504</v>
+        <v>-0.6694691729794768</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7730500294365301</v>
+        <v>-0.8154454482236897</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6505513378568863</v>
+        <v>-0.6547394609206767</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3362490217040315</v>
+        <v>-0.3955643890798911</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4818162312830256</v>
+        <v>-0.4800179377674415</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.607022468628224</v>
+        <v>-0.6404752140520276</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3668457104220783</v>
+        <v>-0.4038009190139301</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.063794659580372</v>
+        <v>1.840471365733821</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9706337509876592</v>
+        <v>0.963965255668478</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.146541574165627</v>
+        <v>1.009198495114728</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.403478006901622</v>
+        <v>2.725675272851124</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.775396524025588</v>
+        <v>2.889575178396235</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.358277516446064</v>
+        <v>3.230912061758116</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.054824916527875</v>
+        <v>1.117299855812041</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.748932826558052</v>
+        <v>0.7756463233983111</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.1609187200191</v>
+        <v>1.0678275227887</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-0.6558390115707684</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.9561678866663161</v>
+        <v>0.9561678866663158</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.306989188020728</v>
+        <v>-1.20019332411323</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.928006999774907</v>
+        <v>-2.135150963601271</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.278158621190459</v>
+        <v>-1.393414838467079</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.910559358122254</v>
+        <v>-1.980868423940275</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.482029292245771</v>
+        <v>-2.553667358648005</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.3802635638494451</v>
+        <v>-0.1940996889137514</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.207508050135655</v>
+        <v>-1.051670658742229</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.714799487742302</v>
+        <v>-1.66071608480797</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.1790115465369319</v>
+        <v>-0.2840834323427139</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.277676103257103</v>
+        <v>2.390241586855556</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.06172859625729</v>
+        <v>1.017286803733967</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.72883560500583</v>
+        <v>2.781389094090835</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.10258126175292</v>
+        <v>1.207889491602117</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3001618744166477</v>
+        <v>0.293140410671951</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.124222235367991</v>
+        <v>3.200079416108601</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.292718596852704</v>
+        <v>1.249262300295674</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3746894196066181</v>
+        <v>0.3376061586745097</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.356332617235883</v>
+        <v>2.348309906250433</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.3888619308742971</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.5669337811401889</v>
+        <v>0.5669337811401887</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5597464072354048</v>
+        <v>-0.6029412941903104</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8171050469400308</v>
+        <v>-0.8021226903604477</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6535419779898384</v>
+        <v>-0.6357704319737044</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7248426214711746</v>
+        <v>-0.7821649334235923</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8957205579224869</v>
+        <v>-0.8999346493562064</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2113109973315286</v>
+        <v>-0.1732856181658847</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5020133719244355</v>
+        <v>-0.4873359289241817</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7562312444986784</v>
+        <v>-0.7231576786270786</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1677781181296672</v>
+        <v>-0.15074380829761</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.801840052650254</v>
+        <v>2.513958994372496</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.571605354274653</v>
+        <v>1.261723341218835</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.080662368643198</v>
+        <v>3.173248322501466</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.387378855350861</v>
+        <v>1.331778114245143</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4992890598060666</v>
+        <v>0.4544945797208058</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.595350202374302</v>
+        <v>3.460351841212419</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.12849727838307</v>
+        <v>1.074180743522736</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3956113516778262</v>
+        <v>0.4350823758204377</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.220788912379583</v>
+        <v>2.093707780343023</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-0.6199197897476065</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-1.052675057835225</v>
+        <v>-1.052675057835226</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.51730979476896</v>
+        <v>-4.785001671847064</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.459858453792657</v>
+        <v>-5.621349205406052</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.062138922007303</v>
+        <v>-6.665888636934092</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.323589011830913</v>
+        <v>1.318361555467044</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.271513071024493</v>
+        <v>-1.278148208733337</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.4565944539053582</v>
+        <v>-0.4063314685972709</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.936834662392394</v>
+        <v>-0.7968435639472778</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.689258049132697</v>
+        <v>-2.828620676421291</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.890683001452092</v>
+        <v>-3.432270208851278</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.424933283017475</v>
+        <v>2.244911740004783</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.695676500598073</v>
+        <v>1.303832910322681</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.5843812501453571</v>
+        <v>-0.522876436405037</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.904268703475696</v>
+        <v>6.877340251146746</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.291742341127126</v>
+        <v>2.525598634263901</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.880620678728637</v>
+        <v>2.984754164713195</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.695661476035917</v>
+        <v>3.524734198040806</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.268576629483861</v>
+        <v>1.139598392325456</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5827403653290264</v>
+        <v>0.5174015723327142</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.1807929098832271</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.3070013089032209</v>
+        <v>-0.3070013089032211</v>
       </c>
     </row>
     <row r="20">
@@ -1208,29 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5868486217279743</v>
+        <v>-0.6042380425262219</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.69320869648949</v>
+        <v>-0.7022145123350548</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.859558206539329</v>
+        <v>-0.8540827776973134</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.3307639339365598</v>
-      </c>
-      <c r="G20" s="6" t="inlineStr"/>
+        <v>0.4001837747507103</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.6561630838880237</v>
+      </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3988267131160798</v>
+        <v>-0.297736815421729</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2295617452356657</v>
+        <v>-0.194838886856636</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5742548018937601</v>
+        <v>-0.6033935642107282</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.6274605341676623</v>
+        <v>-0.6726504231973984</v>
       </c>
     </row>
     <row r="21">
@@ -1241,29 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7207602358889608</v>
+        <v>0.6369192860510675</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5110332273576023</v>
+        <v>0.4156687778083658</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.09106986471759046</v>
+        <v>-0.005316360888815434</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>15.22007683090794</v>
-      </c>
-      <c r="G21" s="6" t="inlineStr"/>
+        <v>19.18134173474842</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>7.17794357573781</v>
+      </c>
       <c r="H21" s="6" t="n">
-        <v>7.485205275072216</v>
+        <v>7.934834050201845</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.586002682790111</v>
+        <v>1.423138161566301</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6222627803485272</v>
+        <v>0.5176409840681235</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2649048011210988</v>
+        <v>0.237463983890114</v>
       </c>
     </row>
     <row r="22">
@@ -1293,7 +1297,7 @@
         <v>2.282054031251572</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.89944469110123</v>
+        <v>-0.8994446911012297</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.9993797226748421</v>
@@ -1313,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.248824373856526</v>
+        <v>-4.37776382014066</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.681224144110139</v>
+        <v>-3.391274779807733</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.113622618412289</v>
+        <v>-5.072958405914299</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.97996283699267</v>
+        <v>-2.902986197325585</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.5589337862118466</v>
+        <v>-0.1172552227478167</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.824585040142477</v>
+        <v>-2.894865824459246</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.886643895016873</v>
+        <v>-2.785022872035139</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.904623326690877</v>
+        <v>-1.065617463689805</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.310933990690801</v>
+        <v>-3.283121686149983</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.312337920854446</v>
+        <v>1.980024083239341</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.726393430702564</v>
+        <v>2.656936310068113</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.071431519884284</v>
+        <v>2.111681851113917</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.115081639720937</v>
+        <v>1.275485173685589</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.17221048421803</v>
+        <v>5.389941322590542</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.052001442123962</v>
+        <v>1.862070056776197</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8081639044147527</v>
+        <v>0.8911142112968282</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.203162117425009</v>
+        <v>3.276386507115598</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8789019335043139</v>
+        <v>0.8846769415253503</v>
       </c>
     </row>
     <row r="25">
@@ -1398,7 +1402,7 @@
         <v>0.8656129995003619</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.3411711582139061</v>
+        <v>-0.341171158213906</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.2642727098506653</v>
@@ -1407,7 +1411,7 @@
         <v>0.2543972045348716</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.4152956099739887</v>
+        <v>-0.4152956099739888</v>
       </c>
     </row>
     <row r="26">
@@ -1418,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6530753971663957</v>
+        <v>-0.687820399143199</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5796496952292648</v>
+        <v>-0.5332338654846333</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.8427607870151657</v>
+        <v>-0.8369445085823982</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.7593597882129546</v>
+        <v>-0.751064398820152</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.241859307344217</v>
+        <v>-0.1451546314976644</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.7885765952555602</v>
+        <v>-0.8053548273102785</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5965290733633117</v>
+        <v>-0.5855473005493136</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2122729112688777</v>
+        <v>-0.2382996721250394</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.7370575421862173</v>
+        <v>-0.7444907463054508</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8249881358965289</v>
+        <v>0.596760132443955</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7796431764237359</v>
+        <v>0.8511909659081386</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9366247813696104</v>
+        <v>0.9671397555116481</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8796030774971635</v>
+        <v>1.038787243904122</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.300803993824265</v>
+        <v>3.331102493874799</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.658344189974852</v>
+        <v>1.767830151316622</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3566005572361428</v>
+        <v>0.3795725435281631</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.157227731149058</v>
+        <v>1.161489190068186</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4262170832993872</v>
+        <v>0.3913634095285901</v>
       </c>
     </row>
     <row r="28">
@@ -1527,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.915510746008947</v>
+        <v>-3.892876324309084</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.554954115378509</v>
+        <v>-4.354741393347032</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.744457091557371</v>
+        <v>-6.271805152580042</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.734178563973469</v>
+        <v>-3.226332203078298</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.881141681808435</v>
+        <v>-5.589724941941408</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.844367875197761</v>
+        <v>-7.053518069618958</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.707254862691284</v>
+        <v>-2.666193285151554</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.129115601293018</v>
+        <v>-4.036454945994016</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.377496110669663</v>
+        <v>-5.566920153321835</v>
       </c>
     </row>
     <row r="30">
@@ -1562,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.472859310689155</v>
+        <v>3.283819512991437</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.30135814111597</v>
+        <v>2.590505547254081</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4103119498858019</v>
+        <v>0.1871155749448822</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.127175784678276</v>
+        <v>4.246876457723239</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.5889049963631493</v>
+        <v>0.5297688629301148</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.481623132983611</v>
+        <v>-1.261013784826937</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.631223458303793</v>
+        <v>2.84260707360264</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.634059614119731</v>
+        <v>0.5144479206917909</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.089296971495039</v>
+        <v>-1.228081270274446</v>
       </c>
     </row>
     <row r="31">
@@ -1632,16 +1636,16 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7453931167927784</v>
+        <v>-0.7076487404020942</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7996381890803587</v>
+        <v>-0.7888929207018851</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.6569069209704493</v>
+        <v>-0.597842066826186</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>-1</v>
@@ -1650,13 +1654,13 @@
         <v>-1</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.5414196713118905</v>
+        <v>-0.5273956841626648</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.7760302561224177</v>
+        <v>-0.7719238223306664</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.954987461902159</v>
+        <v>-0.9679545305801212</v>
       </c>
     </row>
     <row r="33">
@@ -1667,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.496249020128428</v>
+        <v>1.890055825094301</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.584234662485514</v>
+        <v>1.838564851413329</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.045916027428649</v>
+        <v>0.5424355709778083</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.52131103875156</v>
+        <v>2.151852331980778</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5729784039783508</v>
+        <v>0.616987318171195</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3549127530960858</v>
+        <v>-0.1887897878865603</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.045111015350891</v>
+        <v>1.189853508506081</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3482784116515255</v>
+        <v>0.346383450866285</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3494276910332917</v>
+        <v>-0.3560822387530423</v>
       </c>
     </row>
     <row r="34">
@@ -1721,7 +1725,7 @@
         <v>5.477759044644547</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.498758201581471</v>
+        <v>1.498758201581469</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.7860355743724213</v>
@@ -1741,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.822096178232141</v>
+        <v>-3.70595382423983</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.9480809048160007</v>
+        <v>-1.105982812316145</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.824945429584224</v>
+        <v>-2.975906835458876</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.292264744765242</v>
+        <v>-1.383584571169701</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>1.356920402414267</v>
+        <v>1.380006301336021</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.719229604426817</v>
+        <v>-1.704861933464423</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.697796168189715</v>
+        <v>-1.454774208587315</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.154403254045712</v>
+        <v>1.231866718448488</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.449934638883784</v>
+        <v>-1.536962359070752</v>
       </c>
     </row>
     <row r="36">
@@ -1776,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.564747955542404</v>
+        <v>2.284179250877775</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6.213438314929259</v>
+        <v>6.309962151309083</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.790049307547494</v>
+        <v>2.613912522315299</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.338412377892324</v>
+        <v>5.9288849097379</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>10.03583933788569</v>
+        <v>10.23894998246287</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.449379221385348</v>
+        <v>4.307069899000082</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.056385628449634</v>
+        <v>3.327167462358394</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>7.050447238839161</v>
+        <v>7.092629037786653</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.817448581748649</v>
+        <v>2.697617836966317</v>
       </c>
     </row>
     <row r="37">
@@ -1826,7 +1830,7 @@
         <v>1.437074038514035</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3931948236402354</v>
+        <v>0.3931948236402348</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.221339617486069</v>
@@ -1846,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8019956134402525</v>
+        <v>-0.8328288511448729</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2364280579917577</v>
+        <v>-0.3029201631574311</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5817042807044166</v>
+        <v>-0.5902462450323506</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2915190846024528</v>
+        <v>-0.2983868139219782</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1589840379538946</v>
+        <v>0.1676717221145964</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3122037834195244</v>
+        <v>-0.3562272983497518</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3678146691294324</v>
+        <v>-0.3248878683638486</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1851238696509188</v>
+        <v>0.2176222373066006</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.297712486388777</v>
+        <v>-0.3199940568066512</v>
       </c>
     </row>
     <row r="39">
@@ -1881,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.995561957865827</v>
+        <v>1.56578842312233</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3.747135335751693</v>
+        <v>3.426375506613813</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.016487491902966</v>
+        <v>1.549312690446397</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>3.018459911504308</v>
+        <v>3.062462860470188</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>4.256479234986163</v>
+        <v>4.522165185964967</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2.081044555619791</v>
+        <v>2.08123064200465</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.186034391160464</v>
+        <v>1.425471675356144</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2.660942952504575</v>
+        <v>2.814353998961441</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.185784529700367</v>
+        <v>1.115631665707427</v>
       </c>
     </row>
     <row r="40">
@@ -1926,7 +1930,7 @@
         <v>-3.190416220252308</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-2.218564522640707</v>
+        <v>-2.218564522640708</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-0.1178967502613849</v>
@@ -1935,7 +1939,7 @@
         <v>-2.052643222946231</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0.1300178709670977</v>
+        <v>0.1300178709670981</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.5516965927698764</v>
@@ -1955,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.324967187008486</v>
+        <v>-3.167026302110223</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.247193715914279</v>
+        <v>-5.423525856616505</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-4.255120474931326</v>
+        <v>-4.359112148370223</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.915784379068244</v>
+        <v>-2.016745141889769</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.568959640921187</v>
+        <v>-3.674475597157738</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.687169445784038</v>
+        <v>-1.573787785607092</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.031416321042807</v>
+        <v>-2.183164601758812</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.898451718281088</v>
+        <v>-3.909045677109509</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-2.446401692528816</v>
+        <v>-2.352941318550691</v>
       </c>
     </row>
     <row r="42">
@@ -1990,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.320330563432382</v>
+        <v>1.151112899140071</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-1.350069789336238</v>
+        <v>-1.60764979594528</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.1571364825749278</v>
+        <v>-0.3172893624528528</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.667515115439933</v>
+        <v>1.73420127043276</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.5080644063010544</v>
+        <v>-0.6243822119746738</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.771124948047926</v>
+        <v>1.771440075469133</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.8137523917572723</v>
+        <v>0.841010350542991</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-1.354078850731034</v>
+        <v>-1.454091199937263</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.3299584066644554</v>
+        <v>0.263822308954927</v>
       </c>
     </row>
     <row r="43">
@@ -2031,7 +2035,7 @@
         <v>-0.7191703232843802</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.5000995653315087</v>
+        <v>-0.5000995653315088</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.04085905174321887</v>
@@ -2040,7 +2044,7 @@
         <v>-0.7113771623966252</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.04505982485191357</v>
+        <v>0.04505982485191369</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.15129488514703</v>
@@ -2060,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.571255022548533</v>
+        <v>-0.5699119633334204</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.9012019812394811</v>
+        <v>-0.9013494945949631</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.745476441718535</v>
+        <v>-0.74170056653774</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.5192117083330927</v>
+        <v>-0.5282778756886828</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.9264596907472399</v>
+        <v>-0.9131909262600795</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.4251949173430915</v>
+        <v>-0.3989022682878877</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.452514945047553</v>
+        <v>-0.4840143368879013</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.8600409839095654</v>
+        <v>-0.8713856752059299</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.5264670580583556</v>
+        <v>-0.5328096595197855</v>
       </c>
     </row>
     <row r="45">
@@ -2095,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4708398290907137</v>
+        <v>0.3544871007911983</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.3749771783957894</v>
+        <v>-0.3958312251951997</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.04570076141317063</v>
+        <v>0.008515855859357822</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.8883027426183076</v>
+        <v>0.9253844674363408</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.2224712093677798</v>
+        <v>-0.1851425157117284</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.9357862235049629</v>
+        <v>0.8970375140029749</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3031275957294897</v>
+        <v>0.2922571417975725</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.4285566624895749</v>
+        <v>-0.4653562844889869</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.123628760173264</v>
+        <v>0.08821125798419448</v>
       </c>
     </row>
     <row r="46">
@@ -2158,7 +2162,7 @@
         <v>-1.448150282411492</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-1.50165167394276</v>
+        <v>-1.501651673942759</v>
       </c>
     </row>
     <row r="47">
@@ -2169,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-4.036460742887363</v>
+        <v>-4.028636396254626</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.988108652742085</v>
+        <v>-3.029550284565224</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.282081496626776</v>
+        <v>-3.321762892910122</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.319994463841449</v>
+        <v>-3.260104271135786</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-3.274348044577831</v>
+        <v>-3.308823564926865</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-3.347648040735507</v>
+        <v>-3.1145433171754</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-3.231886186985962</v>
+        <v>-3.229686164893849</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-2.669910088977453</v>
+        <v>-2.660938308502535</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-2.641102075372307</v>
+        <v>-2.665503963986272</v>
       </c>
     </row>
     <row r="48">
@@ -2204,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.779593271818137</v>
+        <v>-0.7515955119107625</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.6221847190017631</v>
+        <v>0.4896219813674294</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.3818794565636702</v>
+        <v>0.3708669144067259</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-0.1133975910389617</v>
+        <v>-0.04543296371365166</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.0858751406602344</v>
+        <v>-0.203224758409352</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.006096906788800901</v>
+        <v>0.08182876499868474</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-0.8616306772071974</v>
+        <v>-0.8850395405074515</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.2388178333501592</v>
+        <v>-0.2854177017443773</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-0.2436074054064607</v>
+        <v>-0.1590609247529552</v>
       </c>
     </row>
     <row r="49">
@@ -2245,7 +2249,7 @@
         <v>-0.3444637130206203</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.3980252261555007</v>
+        <v>-0.3980252261555008</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.495515759657414</v>
@@ -2254,7 +2258,7 @@
         <v>-0.4831404406467288</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.4620227134952539</v>
+        <v>-0.462022713495254</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.5829215302755574</v>
@@ -2263,7 +2267,7 @@
         <v>-0.4147966886150453</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.4301212031443745</v>
+        <v>-0.4301212031443742</v>
       </c>
     </row>
     <row r="50">
@@ -2274,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.8579981570812864</v>
+        <v>-0.8752966017466962</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6550730111135717</v>
+        <v>-0.6508228958682584</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.722722221373934</v>
+        <v>-0.7362610095389065</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.7678962052061796</v>
+        <v>-0.7529139664287214</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.7350087446097472</v>
+        <v>-0.7460596019282915</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.7176362039560066</v>
+        <v>-0.7214236091282658</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.7593064278438864</v>
+        <v>-0.7685899180427312</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.6164901937406509</v>
+        <v>-0.6233033724521562</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.633117787952632</v>
+        <v>-0.6249820020034236</v>
       </c>
     </row>
     <row r="51">
@@ -2309,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.1841900280480169</v>
+        <v>-0.2168524430465575</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.2687382766075032</v>
+        <v>0.2236949893190578</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.204683836812894</v>
+        <v>0.1926714397387765</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.01481624460954191</v>
+        <v>0.1140505935123187</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.03498018715432247</v>
+        <v>0.004655110926013406</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.07439043404379514</v>
+        <v>0.0413876534134274</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.3016028126469572</v>
+        <v>-0.2829805375545834</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.0509568904810728</v>
+        <v>-0.07961817144085848</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.06409237280680648</v>
+        <v>-0.04078815486511577</v>
       </c>
     </row>
     <row r="52">
@@ -2372,7 +2376,7 @@
         <v>-0.7132056048195432</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-0.7574663454494504</v>
+        <v>-0.7574663454494507</v>
       </c>
     </row>
     <row r="53">
@@ -2383,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.796437953957228</v>
+        <v>-1.704965604625151</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.98857443962193</v>
+        <v>-1.925258670321382</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-2.388029534419097</v>
+        <v>-2.24667754608047</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.865700043045895</v>
+        <v>-0.8536467987203749</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-1.10685660823268</v>
+        <v>-1.122175853622053</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.8544738249402545</v>
+        <v>-0.829854258572204</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-1.061851556989648</v>
+        <v>-1.133444537647257</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-1.315704617192314</v>
+        <v>-1.282180656008604</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-1.315193842988826</v>
+        <v>-1.295758796801163</v>
       </c>
     </row>
     <row r="54">
@@ -2418,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-0.05845943345152187</v>
+        <v>-0.02495167146515812</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-0.3017382242698559</v>
+        <v>-0.2449238749401158</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-0.5343211618686934</v>
+        <v>-0.5025663106913802</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.7222874943124841</v>
+        <v>0.7343385485976308</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.4663092727418686</v>
+        <v>0.4451306324759751</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>0.6768291481188795</v>
+        <v>0.5812259767818186</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>0.1417389216942168</v>
+        <v>0.1516542140367989</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-0.1782864317156767</v>
+        <v>-0.1188529457204577</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-0.1492011038659584</v>
+        <v>-0.1703882594892918</v>
       </c>
     </row>
     <row r="55">
@@ -2459,7 +2463,7 @@
         <v>-0.3011005971621801</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.379485915472423</v>
+        <v>-0.3794859154724231</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>-0.004522008377802515</v>
@@ -2477,7 +2481,7 @@
         <v>-0.2188701147746361</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.232452948835691</v>
+        <v>-0.2324529488356911</v>
       </c>
     </row>
     <row r="56">
@@ -2488,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.4215725009114563</v>
+        <v>-0.4100223505282042</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.4737736621191448</v>
+        <v>-0.4617964241509317</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.5589028233405143</v>
+        <v>-0.5301912855383463</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.2713905667252039</v>
+        <v>-0.2654630039221911</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.3516757571020952</v>
+        <v>-0.3529527503641336</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.2623790130648371</v>
+        <v>-0.2684633163152172</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.2909001479283963</v>
+        <v>-0.3119784312423864</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.3684678007331269</v>
+        <v>-0.3670377334318136</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.3656495920453522</v>
+        <v>-0.3580087194072601</v>
       </c>
     </row>
     <row r="57">
@@ -2523,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.01600169154488697</v>
+        <v>0.0004790600929207239</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.08551591958569632</v>
+        <v>-0.06479422144877373</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.1512290701817539</v>
+        <v>-0.1313096068445858</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.2987969791930275</v>
+        <v>0.3072561807066807</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1943548591052209</v>
+        <v>0.1796350575602264</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.2999337809801315</v>
+        <v>0.2527459551748208</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.05029898906743797</v>
+        <v>0.04496738422467082</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.05890909784524048</v>
+        <v>-0.04375082697347493</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.05037873154240372</v>
+        <v>-0.05472345819408643</v>
       </c>
     </row>
     <row r="58">
